--- a/medicine/Enfance/Claude_Ponti/Claude_Ponti.xlsx
+++ b/medicine/Enfance/Claude_Ponti/Claude_Ponti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Ponticelli, dit Claude Ponti, né le 22 novembre 1948 à Lunéville, en Lorraine, est un auteur de littérature de jeunesse et illustrateur français.
 En 1986, il publie L'Album d'Adèle son premier album pour la jeunesse. Il est célèbre pour ses personnages de poussins et le personnage de Blaise, le poussin masqué.
@@ -513,24 +525,26 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Ponticelli grandit à Lunéville puis à Clairefontaine. Son père est chrono-analyseur et sa  mère institutrice. Il est le cadet d'une famille de trois enfants[2],[3]. À l'âge de 6 ans, Claude Ponti est violé à plusieurs reprises par son grand-père maternel. Traumatisé, il en témoigne à l'âge de 25 ans, et est mis à la porte par ses parents, qui ne le croient pas[4].
-Il passe le bac en 1967. Il fréquente alors l'école des beaux-arts d'Aix-en-Provence, puis suit des études de lettres et d'archéologie à Strasbourg. Il déménage ensuite à Paris[5].
-Il devient  dessinateur de presse à L'Express jusqu'en 1984. En parallèle, il peint et expose ses œuvres dans des galeries à Paris[6].
-Au début des années 1980, il est directeur artistique à l'Imagerie d'Épinal[6].
-À la naissance de sa fille Adèle, en 1985, il crée L'Album d'Adèle[7]. Initialement, l'ouvrage est uniquement destiné à sa fille mais son éditrice Geneviève Brisac le convainc de publier l'ouvrage chez Gallimard. Il publie ensuite Adèle s'en mêle (1987) et Adèle et la pelle (1988). Ces trois albums constituent le cycle d'Adèle et suivent l'évolution de sa fille[6],[8],[9].
-En 1990, Claude Ponti rejoint L'École des loisirs où il publie Pétronille et ses 120 petits [6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Ponticelli grandit à Lunéville puis à Clairefontaine. Son père est chrono-analyseur et sa  mère institutrice. Il est le cadet d'une famille de trois enfants,. À l'âge de 6 ans, Claude Ponti est violé à plusieurs reprises par son grand-père maternel. Traumatisé, il en témoigne à l'âge de 25 ans, et est mis à la porte par ses parents, qui ne le croient pas.
+Il passe le bac en 1967. Il fréquente alors l'école des beaux-arts d'Aix-en-Provence, puis suit des études de lettres et d'archéologie à Strasbourg. Il déménage ensuite à Paris.
+Il devient  dessinateur de presse à L'Express jusqu'en 1984. En parallèle, il peint et expose ses œuvres dans des galeries à Paris.
+Au début des années 1980, il est directeur artistique à l'Imagerie d'Épinal.
+À la naissance de sa fille Adèle, en 1985, il crée L'Album d'Adèle. Initialement, l'ouvrage est uniquement destiné à sa fille mais son éditrice Geneviève Brisac le convainc de publier l'ouvrage chez Gallimard. Il publie ensuite Adèle s'en mêle (1987) et Adèle et la pelle (1988). Ces trois albums constituent le cycle d'Adèle et suivent l'évolution de sa fille.
+En 1990, Claude Ponti rejoint L'École des loisirs où il publie Pétronille et ses 120 petits .
 En 1991, il publie trois albums consacrés au personnage de Blaise, le poussin masqué : Blaise et la tempêteuse bouchée (1991), Le jour du mange-poussin (1991) et Blaise dompteur de tache (1992).
 En 1993, il inaugure la série de livres pour les petits autour des deux poussins Tromboline et Foulbazar : La Fenêtre (1993), Les Épinards, (1993), La Voiture (1993).
-En 1995, il publie son premier roman, Les Pieds Bleus, aux éditions de l'Olivier, un roman dans lequel il aborde le thème de la violence des adultes envers les enfants et notamment les agressions sexuelles[10]. Cette fiction lui permet de revenir sur les sévices sexuels que son grand-père lui a infligés enfant[11],[12].
-En 2007, Claude Ponti écrit un texte pour le spectacle Sombrero chorégraphié par Philippe Decouflé[13].
-En 2009, il crée un musée en ligne pour les œuvres des enfants, Le Muz[14].
-En 2012, il participe à une exposition à l'abbaye de Fontevraud intitulée « Les maisons à cuire », en collaboration avec Armelle Benoit et François Bon, inspiré du livre de Ponti Questions d’importance (2012)[15].
-De juin 2013 au 20 octobre 2013, Claude Ponti investit le jardin des plantes de Nantes dans le cadre du Voyage à Nantes. Il y a créé divers objets et installations qui s'insèrent dans le parcours du jardin, tels un banc géant, une poire souriante, des « totems-oiseaux[16] »... Certaines œuvres sont encore visibles après un nettoyage[17]. Chaque année depuis 2013, de nouvelles œuvres ont été créées[18].
+En 1995, il publie son premier roman, Les Pieds Bleus, aux éditions de l'Olivier, un roman dans lequel il aborde le thème de la violence des adultes envers les enfants et notamment les agressions sexuelles. Cette fiction lui permet de revenir sur les sévices sexuels que son grand-père lui a infligés enfant,.
+En 2007, Claude Ponti écrit un texte pour le spectacle Sombrero chorégraphié par Philippe Decouflé.
+En 2009, il crée un musée en ligne pour les œuvres des enfants, Le Muz.
+En 2012, il participe à une exposition à l'abbaye de Fontevraud intitulée « Les maisons à cuire », en collaboration avec Armelle Benoit et François Bon, inspiré du livre de Ponti Questions d’importance (2012).
+De juin 2013 au 20 octobre 2013, Claude Ponti investit le jardin des plantes de Nantes dans le cadre du Voyage à Nantes. Il y a créé divers objets et installations qui s'insèrent dans le parcours du jardin, tels un banc géant, une poire souriante, des « totems-oiseaux »... Certaines œuvres sont encore visibles après un nettoyage. Chaque année depuis 2013, de nouvelles œuvres ont été créées.
 En 2020, il devait être le commissaire de l'exposition L'Enfance en art, Portraits et Paysages au Passage Sainte-Croix à Nantes. Mais l'exposition a été reportée à la saison 2020/2021 en raison de la pandémie du Covid-19[réf. nécessaire].
-Pendant le confinement de 2020, il diffuse chaque jour une « chozafère » pour permettre aux enfants de faire leur propre album[19].
-En 2023, il est sélectionné pour la deuxième année d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[20].
+Pendant le confinement de 2020, il diffuse chaque jour une « chozafère » pour permettre aux enfants de faire leur propre album.
+En 2023, il est sélectionné pour la deuxième année d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -561,22 +575,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Narration
-Dans les albums pour les tout petits (Dans le loup (1994), Sur le lit (1994), Derrière la poussette (1994), Au fond du jardin (2008), Dans la voiture (2008), Sur la branche (2008)), la narration s'appuie sur la description du monde[21].
-Dans les grands albums (Pétronille et ses 120 petits, etc), la narration repose sur le récit initiatique du personnage qui surmonte des épreuves au cours du récit[21].
-Dans la série Monsieur Monsieur et Mademoiselle Moiselle, la narration repose plus sur la poésie que sur la description du monde[21].
-Dans les albums centrés sur les poussins (Blaise et le robinet (1994), Le jour du Mange-poussin (1991), Blaise dompteur de tache (1992)), la narration repose plutôt sur un principe de récréation[21].
-Dans les ouvrages de Claude Ponti, il y a souvent plusieurs histoires qui sont racontées en parallèle de l'histoire principale, grâce aux images. Par exemple dans Blaise et le dompteur de tache, en parallèle de la course de chaises et de la tache domptée par Blaise, il y a dans les images l'histoire du poussin-avion et celle du poussin aveuglé par une tache d'encre qui fonce dans un parapluie[21].
-Style
-Le style de Claude Ponti est caractérisé par un grand nombre de jeux de mots et de néologismes[21].
-Claude Ponti aime jouer sur la frontière entre la fiction et le réel et multiplie notamment les références dans la fiction à la matérialité du livre. Par exemple dans Blaise et le château d'Anne Hiversère, le texte fait explicitement référence à des pages du livre et dans Mille secrets de poussins, le texte explique que les poussins vivent dans les livres[22].
-Personnages
-Claude Ponti introduit les poussins dans L'Album d'Adèle pour avoir un élément perturbateur dans son ouvrage[23].
-Les poussins sont omniprésents dans l'œuvre de Claude Ponti. Il y a la série d'albums consacrés à Blaise, le poussin masqué : Blaise et la tempêteuse bouchée (1991), Le jour du mange-poussin (1991), Blaise dompteur de taches (1992), Blaise et le robinet (1994), Blaise et le château d'Anne Hiversère (2004), Mille secrets de poussins (2005), Blaise et le kontrôleur de Kastatroffe (2014). Il y a aussi la série d'albums pour petits autour de Tromboline et Foulbazar : Le Bébé bonbon (1995), Les Masques (1995), La Boîte (1995), Le Nuage (1998), Le A (1998), Le Cauchemar (1998), Dans rien (2009), L'avion (2009). Ils sont aussi au centre de La course en livre (2017).
-Le lecteur rencontre aussi les poussins dans d'autres ouvrages. Par exemple, dans Pétronille et ses 120 petits, les poussins viennent en aide à Pétronille.
-Claude Ponti construit également des personnages parentaux forts, comme Pétronille, justement, mère courageuse qui est entourée des prénoms de ses 120 enfants, symbolisant à quel point elle pense fort à eux : « J'invente dans mes livres les figures parentales que je n'ai pas eues »[4].
-Traits caractéristiques
-Depuis l'Album d'Adèle, Claude Ponti met en scène et dessine des codes-barres sur la quatrième de couverture de ses ouvrages[24].
+          <t>Narration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les albums pour les tout petits (Dans le loup (1994), Sur le lit (1994), Derrière la poussette (1994), Au fond du jardin (2008), Dans la voiture (2008), Sur la branche (2008)), la narration s'appuie sur la description du monde.
+Dans les grands albums (Pétronille et ses 120 petits, etc), la narration repose sur le récit initiatique du personnage qui surmonte des épreuves au cours du récit.
+Dans la série Monsieur Monsieur et Mademoiselle Moiselle, la narration repose plus sur la poésie que sur la description du monde.
+Dans les albums centrés sur les poussins (Blaise et le robinet (1994), Le jour du Mange-poussin (1991), Blaise dompteur de tache (1992)), la narration repose plutôt sur un principe de récréation.
+Dans les ouvrages de Claude Ponti, il y a souvent plusieurs histoires qui sont racontées en parallèle de l'histoire principale, grâce aux images. Par exemple dans Blaise et le dompteur de tache, en parallèle de la course de chaises et de la tache domptée par Blaise, il y a dans les images l'histoire du poussin-avion et celle du poussin aveuglé par une tache d'encre qui fonce dans un parapluie.
 </t>
         </is>
       </c>
@@ -602,12 +611,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Réception de l'œuvre</t>
+          <t>Œuvre</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'œuvre de Claude Ponti est notamment traduite en allemand, italien, espagnol, catalan, anglais, chinois, coréen ou encore en japonais[21].
+          <t>Style</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le style de Claude Ponti est caractérisé par un grand nombre de jeux de mots et de néologismes.
+Claude Ponti aime jouer sur la frontière entre la fiction et le réel et multiplie notamment les références dans la fiction à la matérialité du livre. Par exemple dans Blaise et le château d'Anne Hiversère, le texte fait explicitement référence à des pages du livre et dans Mille secrets de poussins, le texte explique que les poussins vivent dans les livres.
 </t>
         </is>
       </c>
@@ -633,14 +649,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Technique</t>
+          <t>Œuvre</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claude Ponti utilise des techniques mixtes, principalement l'encre de Chine et l'aquarelle mais aussi les encres liquides et la gouache[25].
-Claude Ponti travaille au format 1/1 sur des feuilles de la taille de l'album final[25].
-Il arrive que Claude Ponti utilise des photocopies et des collages pour reproduire certains décors. Par exemple dans Blaise et le château d'Anne Hiversère, le même château d'anniversaire terminé est utilisé plusieurs fois dans l'ouvrage[25].
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Ponti introduit les poussins dans L'Album d'Adèle pour avoir un élément perturbateur dans son ouvrage.
+Les poussins sont omniprésents dans l'œuvre de Claude Ponti. Il y a la série d'albums consacrés à Blaise, le poussin masqué : Blaise et la tempêteuse bouchée (1991), Le jour du mange-poussin (1991), Blaise dompteur de taches (1992), Blaise et le robinet (1994), Blaise et le château d'Anne Hiversère (2004), Mille secrets de poussins (2005), Blaise et le kontrôleur de Kastatroffe (2014). Il y a aussi la série d'albums pour petits autour de Tromboline et Foulbazar : Le Bébé bonbon (1995), Les Masques (1995), La Boîte (1995), Le Nuage (1998), Le A (1998), Le Cauchemar (1998), Dans rien (2009), L'avion (2009). Ils sont aussi au centre de La course en livre (2017).
+Le lecteur rencontre aussi les poussins dans d'autres ouvrages. Par exemple, dans Pétronille et ses 120 petits, les poussins viennent en aide à Pétronille.
+Claude Ponti construit également des personnages parentaux forts, comme Pétronille, justement, mère courageuse qui est entourée des prénoms de ses 120 enfants, symbolisant à quel point elle pense fort à eux : « J'invente dans mes livres les figures parentales que je n'ai pas eues ».
 </t>
         </is>
       </c>
@@ -666,20 +689,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prix et distinctions</t>
+          <t>Œuvre</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1988 : Prix Sorcières[26] Catégorie Tout-petits, pour Adèle s’en mêle
-1992 : Prix Sorcières[26] Catégorie Premières lectures, pour Broutille
-1994 : Prix Chrétien de Troyes[27] pour Okilélé
-1997 : Prix Sorcières[26] Catégorie Tout-Petits, pour  Sur la branche
-2000 : (international) « Honour List »[28] de l'IBBY, catégorie Illustration, pour Ma vallée
-2000 : Grand prix SGDL du livre Jeunesse[29] pour Sur l'île des Zertes
-2006 : Prix Sorcières spécial pour l'ensemble de son œuvre[30].
-2008 :  Sélection pour le Prix Hans-Christian-Andersen[31], catégorie Illustration
-2022 et 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren[20]</t>
+          <t>Traits caractéristiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis l'Album d'Adèle, Claude Ponti met en scène et dessine des codes-barres sur la quatrième de couverture de ses ouvrages.
+</t>
         </is>
       </c>
     </row>
@@ -704,13 +726,126 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Réception de l'œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œuvre de Claude Ponti est notamment traduite en allemand, italien, espagnol, catalan, anglais, chinois, coréen ou encore en japonais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Ponti utilise des techniques mixtes, principalement l'encre de Chine et l'aquarelle mais aussi les encres liquides et la gouache.
+Claude Ponti travaille au format 1/1 sur des feuilles de la taille de l'album final.
+Il arrive que Claude Ponti utilise des photocopies et des collages pour reproduire certains décors. Par exemple dans Blaise et le château d'Anne Hiversère, le même château d'anniversaire terminé est utilisé plusieurs fois dans l'ouvrage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1988 : Prix Sorcières Catégorie Tout-petits, pour Adèle s’en mêle
+1992 : Prix Sorcières Catégorie Premières lectures, pour Broutille
+1994 : Prix Chrétien de Troyes pour Okilélé
+1997 : Prix Sorcières Catégorie Tout-Petits, pour  Sur la branche
+2000 : (international) « Honour List » de l'IBBY, catégorie Illustration, pour Ma vallée
+2000 : Grand prix SGDL du livre Jeunesse pour Sur l'île des Zertes
+2006 : Prix Sorcières spécial pour l'ensemble de son œuvre.
+2008 :  Sélection pour le Prix Hans-Christian-Andersen, catégorie Illustration
+2022 et 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Albums
-Sauf mention contraire, les albums ont été publiés par L'École des loisirs.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf mention contraire, les albums ont été publiés par L'École des loisirs.
 L'Album d’Adèle, Gallimard jeunesse, 1986.
 Adèle s’en mêle, Gallimard, 1987.
 La Colère de Monsieur Dubois, Gallimard, 1987.
@@ -787,31 +922,236 @@
 Mouha, 2019
 Voyage au pays des monstres, 2020
 Blaise, Isée et le Tue-planète, 2021
-Romans pour adultes
-Les Pieds-Bleus, Éditions de l'Olivier, 1995.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les Pieds-Bleus, Éditions de l'Olivier, 1995.
 Est-ce qu'hier n'est pas fini ?, Éditions de l'Olivier, 1999.
 Le monde, et inversement, Éditions de l'Olivier, 2006.
-Questions d'importance, publie.net, 2011
-Romans pour enfants
-Broutille, L'École des loisirs, collection Mouche, 1991.
+Questions d'importance, publie.net, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans pour enfants</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Broutille, L'École des loisirs, collection Mouche, 1991.
 Pochée  (Illustrations), textes de Florence Seyvos, L'École des loisirs, collection Mouche, 1994.
-Zénobie, L'École des loisirs, collection Neuf, 1997.
-Théâtre
-La Trijolie 1 - La Pantoufle, L'École des loisirs, 2006.
+Zénobie, L'École des loisirs, collection Neuf, 1997.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>La Trijolie 1 - La Pantoufle, L'École des loisirs, 2006.
 La Trijolie 2 - Bonjour - Où sont les mamans ?, L'École des loisirs, 2006.
 La Table, publie.net, 2011
-Pluie Visage Soleil, L'École des loisirs, 2016
-Articles
-Claude Ponti, « Critiquer un livre pour enfant sans le comprendre est bête », Libération,‎ 12 février 2014 (lire en ligne)
-Podcasts
-« Ozalee et Blu », dans la série Une histoire et…Oli, France Inter, 10 juillet 2019, écouter en ligne
+Pluie Visage Soleil, L'École des loisirs, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Claude Ponti, « Critiquer un livre pour enfant sans le comprendre est bête », Libération,‎ 12 février 2014 (lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Podcasts</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>« Ozalee et Blu », dans la série Une histoire et…Oli, France Inter, 10 juillet 2019, écouter en ligne
 « L'Effassensonge, l'éponge à tracas » interprété par Ariane Ascaride, Au pays des monstres, 6 mars 2020, écouter en ligne
 « Léhaut Polnu, monstre de compagnie » interprété par Arthur Teboul, 6 mars 2020, écouter en ligne
 « Le cœur penché et ses farces rigolmarrantes », interprété par Bérénice Bejo, Au pays des monstres, 6 mars 2020, écouter en ligne
 « L'Ouazo serein, le gardien des songes heureux », interprété par Hervé Pierre, Au pays des monstres, 6 mars 2020, écouter en ligne
-« Les malicieuses méchancetés du Bec de calme », interprété par Doria Tillier, Au pays des monstres, 6 mars 2020, écouter en ligne
-Jeux
-2015 : Pouss'Poussins, L'École des loisirs
+« Les malicieuses méchancetés du Bec de calme », interprété par Doria Tillier, Au pays des monstres, 6 mars 2020, écouter en ligne</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Ponti</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Jeux</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2015 : Pouss'Poussins, L'École des loisirs
 2016 : Les Poussins de Claude Ponti, deux incroyablicieux puzzles, L'École des loisirs
 2019 : La Gigantomaskmarade, L'École des loisirs</t>
         </is>
